--- a/tut05/output/0401ME11.xlsx
+++ b/tut05/output/0401ME11.xlsx
@@ -559,22 +559,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.510204081632653</v>
+        <v>4.51</v>
       </c>
       <c r="C6" t="n">
-        <v>5.181818181818182</v>
+        <v>5.18</v>
       </c>
       <c r="D6" t="n">
-        <v>4.531914893617022</v>
+        <v>4.53</v>
       </c>
       <c r="E6" t="n">
-        <v>4.714285714285714</v>
+        <v>4.71</v>
       </c>
       <c r="F6" t="n">
-        <v>4.739130434782608</v>
+        <v>4.74</v>
       </c>
       <c r="G6" t="n">
-        <v>4.608695652173913</v>
+        <v>4.61</v>
       </c>
       <c r="H6" t="n">
         <v>6.35</v>
@@ -627,31 +627,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.510204081632653</v>
+        <v>4.51</v>
       </c>
       <c r="C8" t="n">
-        <v>4.827956989247312</v>
+        <v>4.83</v>
       </c>
       <c r="D8" t="n">
-        <v>4.728571428571429</v>
+        <v>4.73</v>
       </c>
       <c r="E8" t="n">
-        <v>4.724867724867725</v>
+        <v>4.72</v>
       </c>
       <c r="F8" t="n">
-        <v>4.727659574468085</v>
+        <v>4.73</v>
       </c>
       <c r="G8" t="n">
-        <v>4.708185053380783</v>
+        <v>4.71</v>
       </c>
       <c r="H8" t="n">
-        <v>4.912772585669782</v>
+        <v>4.91</v>
       </c>
       <c r="I8" t="n">
-        <v>4.977839335180056</v>
+        <v>4.98</v>
       </c>
       <c r="K8" t="n">
-        <v>5.010723860589812</v>
+        <v>5.01</v>
       </c>
     </row>
   </sheetData>
